--- a/FS_DATA_DAS.xlsx
+++ b/FS_DATA_DAS.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kensc\Downloads\COURSERA\PYTHON\ProjetArima\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46E76339-A5C3-4852-B54B-708124A32EB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52C18A8B-50F6-4519-B47A-62E2AA1E3DB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -406,16 +406,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D313"/>
+  <dimension ref="A1:D321"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B110" sqref="B110"/>
+      <pane ySplit="1" topLeftCell="A304" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G321" sqref="G321"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -4801,6 +4801,118 @@
         <v>27.9</v>
       </c>
     </row>
+    <row r="314" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A314" s="2">
+        <v>45566</v>
+      </c>
+      <c r="B314" s="3">
+        <v>6329932725.1199999</v>
+      </c>
+      <c r="C314">
+        <v>131.14269999999999</v>
+      </c>
+      <c r="D314">
+        <v>25.3</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A315" s="2">
+        <v>45597</v>
+      </c>
+      <c r="B315" s="3">
+        <v>2869173974</v>
+      </c>
+      <c r="C315">
+        <v>130.58600000000001</v>
+      </c>
+      <c r="D315">
+        <v>26.6</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A316" s="2">
+        <v>45627</v>
+      </c>
+      <c r="B316" s="3">
+        <v>9095976131.6000004</v>
+      </c>
+      <c r="C316">
+        <v>130.3313</v>
+      </c>
+      <c r="D316">
+        <v>28.5</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A317" s="2">
+        <v>45658</v>
+      </c>
+      <c r="B317" s="3">
+        <v>6651080326.1899996</v>
+      </c>
+      <c r="C317">
+        <v>130.17140000000001</v>
+      </c>
+      <c r="D317">
+        <v>29.7</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A318" s="2">
+        <v>45689</v>
+      </c>
+      <c r="B318" s="3">
+        <v>8543862111.71</v>
+      </c>
+      <c r="C318">
+        <v>130.55359999999999</v>
+      </c>
+      <c r="D318">
+        <v>28.4</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A319" s="2">
+        <v>45717</v>
+      </c>
+      <c r="B319" s="3">
+        <v>4137745811.4499998</v>
+      </c>
+      <c r="C319">
+        <v>130.52959999999999</v>
+      </c>
+      <c r="D319">
+        <v>25.2</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A320" s="2">
+        <v>45748</v>
+      </c>
+      <c r="B320" s="3">
+        <v>5062339816.8699999</v>
+      </c>
+      <c r="C320">
+        <v>130.58189999999999</v>
+      </c>
+      <c r="D320">
+        <v>26.8</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A321" s="2">
+        <v>45778</v>
+      </c>
+      <c r="B321" s="3">
+        <v>6014175183.1199999</v>
+      </c>
+      <c r="C321">
+        <v>130.82320000000001</v>
+      </c>
+      <c r="D321">
+        <v>21.272531929643311</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
